--- a/data/SABA_Tidy_Data.xlsx
+++ b/data/SABA_Tidy_Data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25516"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="26680" windowHeight="15420"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="25875" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,16 +13,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$121</definedName>
   </definedNames>
   <calcPr calcId="125725" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -84,8 +79,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -418,23 +413,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K126"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I114" sqref="I114"/>
+      <selection pane="bottomLeft" activeCell="H167" sqref="H167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="19.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="19.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="5" width="19.33203125" style="1"/>
-    <col min="6" max="6" width="19.33203125" style="3"/>
-    <col min="7" max="16384" width="19.33203125" style="1"/>
+    <col min="1" max="1" width="19.28515625" style="2"/>
+    <col min="2" max="5" width="19.28515625" style="1"/>
+    <col min="6" max="6" width="19.28515625" style="3"/>
+    <col min="7" max="16384" width="19.28515625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -3216,28 +3212,1147 @@
         <v>17</v>
       </c>
     </row>
+    <row r="122" spans="1:11">
+      <c r="A122" s="2">
+        <v>42103</v>
+      </c>
+      <c r="B122" s="1">
+        <v>4</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F122" s="3">
+        <v>24.247407438283748</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" s="2">
+        <v>42103</v>
+      </c>
+      <c r="B123" s="1">
+        <v>4</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F123" s="3">
+        <v>25.336861711899246</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="124" spans="1:11">
+      <c r="A124" s="2">
+        <v>42103</v>
+      </c>
+      <c r="B124" s="1">
+        <v>4</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F124" s="3">
+        <v>23.180361624673441</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
       <c r="K124" s="3"/>
     </row>
     <row r="125" spans="1:11">
+      <c r="A125" s="2">
+        <v>42103</v>
+      </c>
+      <c r="B125" s="1">
+        <v>4</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F125" s="3">
+        <v>39.216802067711342</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
       <c r="K125" s="3"/>
     </row>
     <row r="126" spans="1:11">
+      <c r="A126" s="2">
+        <v>42103</v>
+      </c>
+      <c r="B126" s="1">
+        <v>4</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F126" s="3">
+        <v>42.487474604185017</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
       <c r="K126" s="3"/>
     </row>
+    <row r="127" spans="1:11">
+      <c r="A127" s="2">
+        <v>42103</v>
+      </c>
+      <c r="B127" s="1">
+        <v>4</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F127" s="3">
+        <v>42.674579264620064</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128" s="2">
+        <v>42103</v>
+      </c>
+      <c r="B128" s="1">
+        <v>4</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F128" s="3">
+        <v>0</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="2">
+        <v>42103</v>
+      </c>
+      <c r="B129" s="1">
+        <v>4</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F129" s="3">
+        <v>0</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="2">
+        <v>42103</v>
+      </c>
+      <c r="B130" s="1">
+        <v>4</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F130" s="3">
+        <v>0</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="2">
+        <v>42103</v>
+      </c>
+      <c r="B131" s="1">
+        <v>4</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F131" s="3">
+        <v>674.57018105967245</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="2">
+        <v>42103</v>
+      </c>
+      <c r="B132" s="1">
+        <v>4</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F132" s="3">
+        <v>671.73972487647609</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="2">
+        <v>42103</v>
+      </c>
+      <c r="B133" s="1">
+        <v>4</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F133" s="3">
+        <v>674.49032539096618</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="2">
+        <v>42103</v>
+      </c>
+      <c r="B134" s="1">
+        <v>4</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F134" s="3">
+        <v>219.66220577867603</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="2">
+        <v>42103</v>
+      </c>
+      <c r="B135" s="1">
+        <v>4</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F135" s="3">
+        <v>219.9883690591526</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="2">
+        <v>42103</v>
+      </c>
+      <c r="B136" s="1">
+        <v>4</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F136" s="3">
+        <v>219.88250363961626</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="2">
+        <v>42103</v>
+      </c>
+      <c r="B137" s="1">
+        <v>4</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F137" s="3">
+        <v>0</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="2">
+        <v>42103</v>
+      </c>
+      <c r="B138" s="1">
+        <v>4</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F138" s="3">
+        <v>0</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="2">
+        <v>42103</v>
+      </c>
+      <c r="B139" s="1">
+        <v>4</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F139" s="3">
+        <v>0</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="2">
+        <v>42103</v>
+      </c>
+      <c r="B140" s="1">
+        <v>4</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F140" s="3">
+        <v>0</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="2">
+        <v>42103</v>
+      </c>
+      <c r="B141" s="1">
+        <v>4</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F141" s="3">
+        <v>0</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="2">
+        <v>42103</v>
+      </c>
+      <c r="B142" s="1">
+        <v>4</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F142" s="3">
+        <v>0</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="2">
+        <v>42103</v>
+      </c>
+      <c r="B143" s="1">
+        <v>4</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F143" s="3">
+        <v>880.27308079958141</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="2">
+        <v>42103</v>
+      </c>
+      <c r="B144" s="1">
+        <v>4</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F144" s="3">
+        <v>873.08304729795998</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="2">
+        <v>42103</v>
+      </c>
+      <c r="B145" s="1">
+        <v>4</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F145" s="3">
+        <v>876.58877610706145</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="2">
+        <v>42103</v>
+      </c>
+      <c r="B146" s="1">
+        <v>4</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F146" s="3">
+        <v>0</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="2">
+        <v>42103</v>
+      </c>
+      <c r="B147" s="1">
+        <v>4</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F147" s="3">
+        <v>0</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="2">
+        <v>42103</v>
+      </c>
+      <c r="B148" s="1">
+        <v>4</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F148" s="3">
+        <v>0</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="2">
+        <v>42103</v>
+      </c>
+      <c r="B149" s="1">
+        <v>4</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F149" s="3">
+        <v>881.8906347401728</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="2">
+        <v>42103</v>
+      </c>
+      <c r="B150" s="1">
+        <v>4</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F150" s="3">
+        <v>873.18703214921061</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="2">
+        <v>42103</v>
+      </c>
+      <c r="B151" s="1">
+        <v>4</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F151" s="3">
+        <v>874.17257924273395</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="2">
+        <v>42103</v>
+      </c>
+      <c r="B152" s="1">
+        <v>4</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F152" s="3">
+        <v>0</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="2">
+        <v>42103</v>
+      </c>
+      <c r="B153" s="1">
+        <v>4</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F153" s="3">
+        <v>0</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="2">
+        <v>42103</v>
+      </c>
+      <c r="B154" s="1">
+        <v>4</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F154" s="3">
+        <v>0</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="2">
+        <v>42103</v>
+      </c>
+      <c r="B155" s="1">
+        <v>4</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F155" s="3">
+        <v>0</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="2">
+        <v>42103</v>
+      </c>
+      <c r="B156" s="1">
+        <v>4</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F156" s="3">
+        <v>0</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="2">
+        <v>42103</v>
+      </c>
+      <c r="B157" s="1">
+        <v>4</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F157" s="3">
+        <v>0</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="2">
+        <v>42103</v>
+      </c>
+      <c r="B158" s="1">
+        <v>4</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F158" s="3">
+        <v>676.8661303447567</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="2">
+        <v>42103</v>
+      </c>
+      <c r="B159" s="1">
+        <v>4</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F159" s="3">
+        <v>658.84206265600517</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="2">
+        <v>42103</v>
+      </c>
+      <c r="B160" s="1">
+        <v>4</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F160" s="3">
+        <v>671.71419526775571</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="2">
+        <v>42103</v>
+      </c>
+      <c r="B161" s="1">
+        <v>4</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F161" s="3">
+        <v>715.86794899898121</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="2">
+        <v>42103</v>
+      </c>
+      <c r="B162" s="1">
+        <v>4</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F162" s="3">
+        <v>696.98210430082668</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="2">
+        <v>42103</v>
+      </c>
+      <c r="B163" s="1">
+        <v>4</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F163" s="3">
+        <v>643.01444418544997</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="2">
+        <v>42104</v>
+      </c>
+      <c r="B164" s="1">
+        <v>5</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F164" s="3">
+        <v>39.811373785553158</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="2">
+        <v>42104</v>
+      </c>
+      <c r="B165" s="1">
+        <v>5</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F165" s="3">
+        <v>39.231587363828758</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="2">
+        <v>42104</v>
+      </c>
+      <c r="B166" s="1">
+        <v>5</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F166" s="3">
+        <v>39.613545858606031</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="2">
+        <v>42104</v>
+      </c>
+      <c r="B167" s="1">
+        <v>5</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F167" s="3">
+        <v>41.804485214506315</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="2">
+        <v>42104</v>
+      </c>
+      <c r="B168" s="1">
+        <v>5</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F168" s="3">
+        <v>216.9054970122526</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="2">
+        <v>42104</v>
+      </c>
+      <c r="B169" s="1">
+        <v>5</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F169" s="3">
+        <v>215.2228876933541</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="2">
+        <v>42104</v>
+      </c>
+      <c r="B170" s="1">
+        <v>5</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F170" s="3">
+        <v>215.63993317274861</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G121"/>
+  <autoFilter ref="A1:G121">
+    <filterColumn colId="2"/>
+    <filterColumn colId="5"/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/data/SABA_Tidy_Data.xlsx
+++ b/data/SABA_Tidy_Data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25725"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="25875" windowHeight="12330"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="25880" windowHeight="12340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,11 +13,16 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$121</definedName>
   </definedNames>
   <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="23">
   <si>
     <t>Date</t>
   </si>
@@ -75,15 +80,43 @@
   <si>
     <t>Suspect</t>
   </si>
+  <si>
+    <t>CHEESE</t>
+  </si>
+  <si>
+    <t>TOPPING</t>
+  </si>
+  <si>
+    <t>TORTILLA</t>
+  </si>
+  <si>
+    <t>SPREAD</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -106,8 +139,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -121,7 +156,9 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -413,20 +450,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K170"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H167" sqref="H167"/>
+      <pane ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H203" sqref="H203"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="19.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="2"/>
-    <col min="2" max="5" width="19.28515625" style="1"/>
-    <col min="6" max="6" width="19.28515625" style="3"/>
-    <col min="7" max="16384" width="19.28515625" style="1"/>
+    <col min="1" max="1" width="19.33203125" style="2"/>
+    <col min="2" max="5" width="19.33203125" style="1"/>
+    <col min="6" max="6" width="19.33203125" style="3"/>
+    <col min="7" max="16384" width="19.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4348,11 +4385,750 @@
         <v>17</v>
       </c>
     </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B171" s="1">
+        <v>6</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F171" s="3">
+        <v>23.060965224900105</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B172" s="1">
+        <v>6</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F172" s="3">
+        <v>22.609655800358333</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B173" s="1">
+        <v>6</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F173" s="3">
+        <v>21.962716702673763</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B174" s="1">
+        <v>6</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F174" s="3">
+        <v>0</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B175" s="1">
+        <v>6</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F175" s="3">
+        <v>0</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B176" s="1">
+        <v>6</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F176" s="3">
+        <v>0</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B177" s="1">
+        <v>6</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F177" s="3">
+        <v>652.82174998804385</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B178" s="1">
+        <v>6</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F178" s="3">
+        <v>663.49549014748868</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B179" s="1">
+        <v>6</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F179" s="3">
+        <v>651.01706713058377</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B180" s="1">
+        <v>6</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F180" s="3">
+        <v>0</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B181" s="1">
+        <v>6</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F181" s="3">
+        <v>0</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B182" s="1">
+        <v>6</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F182" s="3">
+        <v>0</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B183" s="1">
+        <v>6</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F183" s="3">
+        <v>0</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B184" s="1">
+        <v>6</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F184" s="3">
+        <v>0</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B185" s="1">
+        <v>6</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F185" s="3">
+        <v>0</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B186" s="1">
+        <v>6</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F186" s="3">
+        <v>0</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B187" s="1">
+        <v>6</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F187" s="3">
+        <v>854.47051958070517</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B188" s="1">
+        <v>6</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F188" s="3">
+        <v>876.7188382442896</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B189" s="1">
+        <v>6</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F189" s="3">
+        <v>867.06196980241714</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B190" s="1">
+        <v>6</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F190" s="3">
+        <v>874.43857683344061</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B191" s="1">
+        <v>6</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F191" s="3">
+        <v>878.35162173622086</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B192" s="1">
+        <v>6</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F192" s="3">
+        <v>870.77361712123911</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B193" s="1">
+        <v>6</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F193" s="3">
+        <v>0</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B194" s="1">
+        <v>6</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F194" s="3">
+        <v>0</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B195" s="1">
+        <v>6</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F195" s="3">
+        <v>0</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B196" s="1">
+        <v>6</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F196" s="3">
+        <v>683.16861468096931</v>
+      </c>
+      <c r="G196" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B197" s="1">
+        <v>6</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F197" s="3">
+        <v>652.00532348705804</v>
+      </c>
+      <c r="G197" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B198" s="1">
+        <v>6</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F198" s="3">
+        <v>683.99401301188493</v>
+      </c>
+      <c r="G198" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B199" s="1">
+        <v>6</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F199" s="3">
+        <v>687.52511439963598</v>
+      </c>
+      <c r="G199" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B200" s="1">
+        <v>6</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F200" s="3">
+        <v>698.51206700455725</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B201" s="1">
+        <v>6</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F201" s="3">
+        <v>738.17933170909816</v>
+      </c>
+      <c r="G201" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B202" s="1">
+        <v>6</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F202" s="3">
+        <v>708.62944810280362</v>
+      </c>
+      <c r="G202" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G121">
-    <filterColumn colId="2"/>
-    <filterColumn colId="5"/>
-  </autoFilter>
+  <autoFilter ref="A1:G121"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/data/SABA_Tidy_Data.xlsx
+++ b/data/SABA_Tidy_Data.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\1 - All things R\Git_Projects\SABA\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="25875" windowHeight="12330"/>
   </bookViews>
@@ -12,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$121</definedName>
   </definedNames>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -79,8 +84,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,7 +114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -120,12 +125,23 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -172,7 +188,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -204,9 +220,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -238,6 +255,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -413,15 +431,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K170"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H167" sqref="H167"/>
+      <selection pane="bottomLeft" activeCell="H187" sqref="H187"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="19.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" style="2"/>
     <col min="2" max="5" width="19.28515625" style="1"/>
@@ -429,7 +447,7 @@
     <col min="7" max="16384" width="19.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -452,7 +470,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>42088</v>
       </c>
@@ -463,19 +481,19 @@
         <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="3">
-        <v>837.07964461852634</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>42088</v>
       </c>
@@ -486,19 +504,19 @@
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="3">
-        <v>867.5986078910031</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>42088</v>
       </c>
@@ -509,7 +527,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>13</v>
@@ -521,7 +539,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>42088</v>
       </c>
@@ -529,22 +547,22 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="3">
-        <v>0</v>
+        <v>217.29213814889079</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>42088</v>
       </c>
@@ -552,22 +570,22 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="3">
-        <v>0</v>
+        <v>217.39485177658347</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>42088</v>
       </c>
@@ -575,22 +593,22 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="3">
-        <v>712.811175669617</v>
+        <v>218.91851090473708</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>42088</v>
       </c>
@@ -607,13 +625,13 @@
         <v>13</v>
       </c>
       <c r="F8" s="3">
-        <v>729.9289402045365</v>
+        <v>712.811175669617</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>42088</v>
       </c>
@@ -630,13 +648,13 @@
         <v>13</v>
       </c>
       <c r="F9" s="3">
-        <v>725.00328127287082</v>
+        <v>729.9289402045365</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>42088</v>
       </c>
@@ -647,19 +665,19 @@
         <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>725.00328127287082</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>42088</v>
       </c>
@@ -667,10 +685,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>13</v>
@@ -682,7 +700,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>42088</v>
       </c>
@@ -690,10 +708,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>13</v>
@@ -705,7 +723,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>42088</v>
       </c>
@@ -713,10 +731,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>13</v>
@@ -728,7 +746,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>42088</v>
       </c>
@@ -739,19 +757,19 @@
         <v>14</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>730.16388323571016</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>42088</v>
       </c>
@@ -762,19 +780,19 @@
         <v>14</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>722.66835897635303</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>42088</v>
       </c>
@@ -785,19 +803,19 @@
         <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="3">
-        <v>650.17509189698296</v>
+        <v>720.26674393336702</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>42088</v>
       </c>
@@ -805,22 +823,22 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="3">
-        <v>660.90107230666104</v>
+        <v>0</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>42088</v>
       </c>
@@ -828,22 +846,22 @@
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="3">
-        <v>620.06971606754098</v>
+        <v>0</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>42088</v>
       </c>
@@ -851,7 +869,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>12</v>
@@ -860,13 +878,13 @@
         <v>13</v>
       </c>
       <c r="F19" s="3">
-        <v>730.16388323571016</v>
+        <v>0</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>42088</v>
       </c>
@@ -877,19 +895,19 @@
         <v>14</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F20" s="3">
-        <v>722.66835897635303</v>
+        <v>837.07964461852634</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>42088</v>
       </c>
@@ -900,19 +918,19 @@
         <v>14</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="3">
-        <v>720.26674393336702</v>
+        <v>867.5986078910031</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>42088</v>
       </c>
@@ -935,7 +953,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>42088</v>
       </c>
@@ -958,7 +976,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>42088</v>
       </c>
@@ -966,22 +984,22 @@
         <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="3">
-        <v>39.296085285870198</v>
+        <v>0</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>42088</v>
       </c>
@@ -989,22 +1007,22 @@
         <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="3">
-        <v>38.765283702549823</v>
+        <v>0</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>42088</v>
       </c>
@@ -1012,22 +1030,22 @@
         <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="3">
-        <v>38.727520373776898</v>
+        <v>0</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>42088</v>
       </c>
@@ -1038,19 +1056,19 @@
         <v>15</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>638.17173751396001</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>42088</v>
       </c>
@@ -1061,19 +1079,19 @@
         <v>15</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F28" s="3">
-        <v>0</v>
+        <v>649.50304450295528</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>42088</v>
       </c>
@@ -1084,19 +1102,19 @@
         <v>15</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
+        <v>633.16473040639312</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>42088</v>
       </c>
@@ -1104,22 +1122,22 @@
         <v>1</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F30" s="3">
-        <v>638.17173751396001</v>
+        <v>650.17509189698296</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>42088</v>
       </c>
@@ -1127,22 +1145,22 @@
         <v>1</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F31" s="3">
-        <v>649.50304450295528</v>
+        <v>660.90107230666104</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>42088</v>
       </c>
@@ -1150,22 +1168,22 @@
         <v>1</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F32" s="3">
-        <v>633.16473040639312</v>
+        <v>620.06971606754098</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>42088</v>
       </c>
@@ -1176,19 +1194,19 @@
         <v>15</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F33" s="3">
-        <v>217.29213814889079</v>
+        <v>0</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>42088</v>
       </c>
@@ -1199,19 +1217,19 @@
         <v>15</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F34" s="3">
-        <v>217.39485177658347</v>
+        <v>0</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>42088</v>
       </c>
@@ -1222,19 +1240,19 @@
         <v>15</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F35" s="3">
-        <v>218.91851090473708</v>
+        <v>0</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>42088</v>
       </c>
@@ -1242,10 +1260,10 @@
         <v>1</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>13</v>
@@ -1257,7 +1275,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>42088</v>
       </c>
@@ -1265,10 +1283,10 @@
         <v>1</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>13</v>
@@ -1280,7 +1298,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>42088</v>
       </c>
@@ -1288,10 +1306,10 @@
         <v>1</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>13</v>
@@ -1303,7 +1321,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>42088</v>
       </c>
@@ -1314,19 +1332,19 @@
         <v>15</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F39" s="3">
-        <v>0</v>
+        <v>39.296085285870198</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>42088</v>
       </c>
@@ -1337,19 +1355,19 @@
         <v>15</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F40" s="3">
-        <v>0</v>
+        <v>38.765283702549823</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>42088</v>
       </c>
@@ -1360,19 +1378,19 @@
         <v>15</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>38.727520373776898</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>42089</v>
       </c>
@@ -1383,19 +1401,19 @@
         <v>14</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F42" s="3">
-        <v>631.24653582252301</v>
+        <v>0</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42089</v>
       </c>
@@ -1406,19 +1424,19 @@
         <v>14</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F43" s="3">
-        <v>864.11629627250284</v>
+        <v>0</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>42089</v>
       </c>
@@ -1429,7 +1447,7 @@
         <v>14</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>13</v>
@@ -1441,7 +1459,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>42089</v>
       </c>
@@ -1449,22 +1467,22 @@
         <v>2</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>217.13330079353418</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>42089</v>
       </c>
@@ -1472,22 +1490,22 @@
         <v>2</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>218.69693155910579</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>42089</v>
       </c>
@@ -1495,22 +1513,22 @@
         <v>2</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F47" s="3">
-        <v>762.71222982773543</v>
+        <v>217.64322754465908</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>42089</v>
       </c>
@@ -1527,13 +1545,13 @@
         <v>13</v>
       </c>
       <c r="F48" s="3">
-        <v>726.35140533596484</v>
+        <v>762.71222982773543</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>42089</v>
       </c>
@@ -1550,13 +1568,13 @@
         <v>13</v>
       </c>
       <c r="F49" s="3">
-        <v>700.58066445042368</v>
+        <v>726.35140533596484</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>42089</v>
       </c>
@@ -1567,19 +1585,19 @@
         <v>14</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F50" s="3">
-        <v>0</v>
+        <v>700.58066445042368</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>42089</v>
       </c>
@@ -1587,10 +1605,10 @@
         <v>2</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>13</v>
@@ -1602,7 +1620,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>42089</v>
       </c>
@@ -1610,10 +1628,10 @@
         <v>2</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>13</v>
@@ -1625,7 +1643,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>42089</v>
       </c>
@@ -1633,10 +1651,10 @@
         <v>2</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>13</v>
@@ -1648,7 +1666,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>42089</v>
       </c>
@@ -1659,19 +1677,19 @@
         <v>14</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F54" s="3">
-        <v>0</v>
+        <v>728.66881467610824</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>42089</v>
       </c>
@@ -1682,19 +1700,19 @@
         <v>14</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F55" s="3">
-        <v>0</v>
+        <v>747.0140879196631</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>42089</v>
       </c>
@@ -1705,19 +1723,19 @@
         <v>14</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F56" s="3">
-        <v>645.14438794421142</v>
+        <v>723.92235941031436</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>42089</v>
       </c>
@@ -1725,22 +1743,22 @@
         <v>2</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F57" s="3">
-        <v>687.67649439566708</v>
+        <v>0</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>42089</v>
       </c>
@@ -1748,22 +1766,22 @@
         <v>2</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F58" s="3">
-        <v>650.24715338408737</v>
+        <v>0</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>42089</v>
       </c>
@@ -1771,7 +1789,7 @@
         <v>2</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>12</v>
@@ -1780,13 +1798,13 @@
         <v>13</v>
       </c>
       <c r="F59" s="3">
-        <v>728.66881467610824</v>
+        <v>0</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>42089</v>
       </c>
@@ -1797,19 +1815,19 @@
         <v>14</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F60" s="3">
-        <v>747.0140879196631</v>
+        <v>631.24653582252301</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>42089</v>
       </c>
@@ -1820,19 +1838,19 @@
         <v>14</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F61" s="3">
-        <v>723.92235941031436</v>
+        <v>864.11629627250284</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>42089</v>
       </c>
@@ -1855,7 +1873,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>42089</v>
       </c>
@@ -1878,7 +1896,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>42089</v>
       </c>
@@ -1886,22 +1904,22 @@
         <v>2</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F64" s="3">
-        <v>39.844565815760127</v>
+        <v>0</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>42089</v>
       </c>
@@ -1909,22 +1927,22 @@
         <v>2</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F65" s="3">
-        <v>39.657778749352339</v>
+        <v>0</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>42089</v>
       </c>
@@ -1932,22 +1950,22 @@
         <v>2</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F66" s="3">
-        <v>39.731661242676857</v>
+        <v>0</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>42089</v>
       </c>
@@ -1958,19 +1976,19 @@
         <v>15</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F67" s="3">
-        <v>0</v>
+        <v>616.40700253672435</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>42089</v>
       </c>
@@ -1981,19 +1999,19 @@
         <v>15</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F68" s="3">
-        <v>0</v>
+        <v>622.71977430099366</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>42089</v>
       </c>
@@ -2004,19 +2022,19 @@
         <v>15</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F69" s="3">
-        <v>0</v>
+        <v>613.4551748809281</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>42089</v>
       </c>
@@ -2024,22 +2042,22 @@
         <v>2</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F70" s="3">
-        <v>616.40700253672435</v>
+        <v>645.14438794421142</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>42089</v>
       </c>
@@ -2047,22 +2065,22 @@
         <v>2</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F71" s="3">
-        <v>622.71977430099366</v>
+        <v>687.67649439566708</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>42089</v>
       </c>
@@ -2070,22 +2088,22 @@
         <v>2</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F72" s="3">
-        <v>613.4551748809281</v>
+        <v>650.24715338408737</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>42089</v>
       </c>
@@ -2096,19 +2114,19 @@
         <v>15</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F73" s="3">
-        <v>217.13330079353418</v>
+        <v>0</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>42089</v>
       </c>
@@ -2119,19 +2137,19 @@
         <v>15</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F74" s="3">
-        <v>218.69693155910579</v>
+        <v>0</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>42089</v>
       </c>
@@ -2142,19 +2160,19 @@
         <v>15</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F75" s="3">
-        <v>217.64322754465908</v>
+        <v>0</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>42089</v>
       </c>
@@ -2162,10 +2180,10 @@
         <v>2</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>13</v>
@@ -2177,7 +2195,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>42089</v>
       </c>
@@ -2185,10 +2203,10 @@
         <v>2</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>13</v>
@@ -2200,7 +2218,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>42089</v>
       </c>
@@ -2208,10 +2226,10 @@
         <v>2</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>13</v>
@@ -2223,7 +2241,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>42089</v>
       </c>
@@ -2234,19 +2252,19 @@
         <v>15</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F79" s="3">
-        <v>0</v>
+        <v>39.844565815760127</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>42089</v>
       </c>
@@ -2257,19 +2275,19 @@
         <v>15</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F80" s="3">
-        <v>0</v>
+        <v>39.657778749352339</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>42089</v>
       </c>
@@ -2280,19 +2298,19 @@
         <v>15</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>39.731661242676857</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>42095</v>
       </c>
@@ -2303,19 +2321,19 @@
         <v>14</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F82" s="3">
-        <v>802.9542938916851</v>
+        <v>0</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>42095</v>
       </c>
@@ -2326,19 +2344,19 @@
         <v>14</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F83" s="3">
-        <v>833.62880974538882</v>
+        <v>0</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>42095</v>
       </c>
@@ -2349,19 +2367,19 @@
         <v>14</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F84" s="3">
-        <v>846.68455987346704</v>
+        <v>0</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>42095</v>
       </c>
@@ -2369,22 +2387,22 @@
         <v>3</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F85" s="3">
-        <v>0</v>
+        <v>220.03393224545025</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>42095</v>
       </c>
@@ -2392,22 +2410,22 @@
         <v>3</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F86" s="3">
-        <v>0</v>
+        <v>221.19679334806372</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>42095</v>
       </c>
@@ -2415,22 +2433,22 @@
         <v>3</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F87" s="3">
-        <v>792.53363498480883</v>
+        <v>220.74936017188787</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>42095</v>
       </c>
@@ -2447,13 +2465,13 @@
         <v>13</v>
       </c>
       <c r="F88" s="3">
-        <v>834.88641838103513</v>
+        <v>792.53363498480883</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>42095</v>
       </c>
@@ -2470,13 +2488,13 @@
         <v>13</v>
       </c>
       <c r="F89" s="3">
-        <v>836.38385018462952</v>
+        <v>834.88641838103513</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>42095</v>
       </c>
@@ -2487,19 +2505,19 @@
         <v>14</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F90" s="3">
-        <v>0</v>
+        <v>836.38385018462952</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>42095</v>
       </c>
@@ -2507,10 +2525,10 @@
         <v>3</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>13</v>
@@ -2522,7 +2540,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>42095</v>
       </c>
@@ -2530,10 +2548,10 @@
         <v>3</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>13</v>
@@ -2545,7 +2563,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>42095</v>
       </c>
@@ -2553,10 +2571,10 @@
         <v>3</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>13</v>
@@ -2568,7 +2586,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>42095</v>
       </c>
@@ -2579,19 +2597,19 @@
         <v>14</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>713.29115052150553</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>42095</v>
       </c>
@@ -2602,19 +2620,19 @@
         <v>14</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F95" s="3">
-        <v>0</v>
+        <v>686.12620597631076</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>42095</v>
       </c>
@@ -2625,19 +2643,19 @@
         <v>14</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F96" s="3">
-        <v>627.68430383272664</v>
+        <v>699.32239492596898</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>42095</v>
       </c>
@@ -2645,22 +2663,22 @@
         <v>3</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F97" s="3">
-        <v>645.43649587953894</v>
+        <v>0</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>42095</v>
       </c>
@@ -2668,22 +2686,22 @@
         <v>3</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F98" s="3">
-        <v>622.2927683397653</v>
+        <v>0</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>42095</v>
       </c>
@@ -2691,7 +2709,7 @@
         <v>3</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>12</v>
@@ -2700,13 +2718,13 @@
         <v>13</v>
       </c>
       <c r="F99" s="3">
-        <v>713.29115052150553</v>
+        <v>0</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>42095</v>
       </c>
@@ -2717,19 +2735,19 @@
         <v>14</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F100" s="3">
-        <v>686.12620597631076</v>
+        <v>802.9542938916851</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>42095</v>
       </c>
@@ -2740,19 +2758,19 @@
         <v>14</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F101" s="3">
-        <v>699.32239492596898</v>
+        <v>833.62880974538882</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>42095</v>
       </c>
@@ -2760,7 +2778,7 @@
         <v>3</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>6</v>
@@ -2769,13 +2787,13 @@
         <v>13</v>
       </c>
       <c r="F102" s="3">
-        <v>21.138329773138533</v>
+        <v>846.68455987346704</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>42095</v>
       </c>
@@ -2792,13 +2810,13 @@
         <v>13</v>
       </c>
       <c r="F103" s="3">
-        <v>22.977370750296057</v>
+        <v>21.138329773138533</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>42095</v>
       </c>
@@ -2815,13 +2833,13 @@
         <v>13</v>
       </c>
       <c r="F104" s="3">
-        <v>20.231404944206655</v>
+        <v>22.977370750296057</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>42095</v>
       </c>
@@ -2832,19 +2850,19 @@
         <v>15</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F105" s="3">
-        <v>40.173813104952494</v>
+        <v>20.231404944206655</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>42095</v>
       </c>
@@ -2852,22 +2870,22 @@
         <v>3</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F106" s="3">
-        <v>40.594691630334786</v>
+        <v>0</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>42095</v>
       </c>
@@ -2875,10 +2893,10 @@
         <v>3</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>13</v>
@@ -2890,7 +2908,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>42095</v>
       </c>
@@ -2898,10 +2916,10 @@
         <v>3</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>13</v>
@@ -2913,7 +2931,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>42095</v>
       </c>
@@ -2924,19 +2942,19 @@
         <v>15</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F109" s="3">
-        <v>0</v>
+        <v>648.55554977810118</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>42095</v>
       </c>
@@ -2953,13 +2971,13 @@
         <v>13</v>
       </c>
       <c r="F110" s="3">
-        <v>648.55554977810118</v>
+        <v>648.65331695051566</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>42095</v>
       </c>
@@ -2976,13 +2994,13 @@
         <v>13</v>
       </c>
       <c r="F111" s="3">
-        <v>648.65331695051566</v>
+        <v>650.07251635163345</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>42095</v>
       </c>
@@ -2990,22 +3008,22 @@
         <v>3</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F112" s="3">
-        <v>650.07251635163345</v>
+        <v>627.68430383272664</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>42095</v>
       </c>
@@ -3013,22 +3031,22 @@
         <v>3</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F113" s="3">
-        <v>220.03393224545025</v>
+        <v>645.43649587953894</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>42095</v>
       </c>
@@ -3036,22 +3054,22 @@
         <v>3</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F114" s="3">
-        <v>221.19679334806372</v>
+        <v>622.2927683397653</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>42095</v>
       </c>
@@ -3062,19 +3080,19 @@
         <v>15</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F115" s="3">
-        <v>220.74936017188787</v>
+        <v>0</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>42095</v>
       </c>
@@ -3097,7 +3115,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>42095</v>
       </c>
@@ -3120,7 +3138,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>42095</v>
       </c>
@@ -3128,10 +3146,10 @@
         <v>3</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>13</v>
@@ -3143,7 +3161,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>42095</v>
       </c>
@@ -3151,10 +3169,10 @@
         <v>3</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>13</v>
@@ -3166,7 +3184,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>42095</v>
       </c>
@@ -3177,19 +3195,19 @@
         <v>15</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F120" s="3">
-        <v>0</v>
+        <v>40.173813104952494</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>42095</v>
       </c>
@@ -3200,19 +3218,19 @@
         <v>15</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F121" s="3">
-        <v>0</v>
+        <v>40.594691630334786</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>42103</v>
       </c>
@@ -3223,19 +3241,19 @@
         <v>15</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F122" s="3">
-        <v>24.247407438283748</v>
+        <v>219.66220577867603</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>42103</v>
       </c>
@@ -3246,19 +3264,19 @@
         <v>15</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F123" s="3">
-        <v>25.336861711899246</v>
+        <v>219.9883690591526</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>42103</v>
       </c>
@@ -3269,13 +3287,13 @@
         <v>15</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F124" s="3">
-        <v>23.180361624673441</v>
+        <v>219.88250363961626</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>17</v>
@@ -3284,7 +3302,7 @@
       <c r="J124" s="3"/>
       <c r="K124" s="3"/>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>42103</v>
       </c>
@@ -3292,25 +3310,25 @@
         <v>4</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F125" s="3">
-        <v>39.216802067711342</v>
+        <v>0</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
       <c r="K125" s="3"/>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>42103</v>
       </c>
@@ -3318,16 +3336,16 @@
         <v>4</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F126" s="3">
-        <v>42.487474604185017</v>
+        <v>0</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>17</v>
@@ -3336,7 +3354,7 @@
       <c r="J126" s="3"/>
       <c r="K126" s="3"/>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>42103</v>
       </c>
@@ -3344,22 +3362,22 @@
         <v>4</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F127" s="3">
-        <v>42.674579264620064</v>
+        <v>0</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>42103</v>
       </c>
@@ -3382,7 +3400,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>42103</v>
       </c>
@@ -3405,7 +3423,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>42103</v>
       </c>
@@ -3428,7 +3446,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>42103</v>
       </c>
@@ -3436,22 +3454,22 @@
         <v>4</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F131" s="3">
-        <v>674.57018105967245</v>
+        <v>881.8906347401728</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>42103</v>
       </c>
@@ -3459,22 +3477,22 @@
         <v>4</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F132" s="3">
-        <v>671.73972487647609</v>
+        <v>873.18703214921061</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>42103</v>
       </c>
@@ -3482,22 +3500,22 @@
         <v>4</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F133" s="3">
-        <v>674.49032539096618</v>
+        <v>874.17257924273395</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>42103</v>
       </c>
@@ -3508,19 +3526,19 @@
         <v>15</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F134" s="3">
-        <v>219.66220577867603</v>
+        <v>0</v>
       </c>
       <c r="G134" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>42103</v>
       </c>
@@ -3531,19 +3549,19 @@
         <v>15</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F135" s="3">
-        <v>219.9883690591526</v>
+        <v>0</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>42103</v>
       </c>
@@ -3554,19 +3572,19 @@
         <v>15</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F136" s="3">
-        <v>219.88250363961626</v>
+        <v>0</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>42103</v>
       </c>
@@ -3574,22 +3592,22 @@
         <v>4</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F137" s="3">
-        <v>0</v>
+        <v>715.86794899898121</v>
       </c>
       <c r="G137" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>42103</v>
       </c>
@@ -3597,22 +3615,22 @@
         <v>4</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F138" s="3">
-        <v>0</v>
+        <v>696.98210430082668</v>
       </c>
       <c r="G138" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>42103</v>
       </c>
@@ -3620,22 +3638,22 @@
         <v>4</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F139" s="3">
-        <v>0</v>
+        <v>643.01444418544997</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>42103</v>
       </c>
@@ -3646,19 +3664,19 @@
         <v>15</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F140" s="3">
-        <v>0</v>
+        <v>24.247407438283748</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>42103</v>
       </c>
@@ -3669,19 +3687,19 @@
         <v>15</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F141" s="3">
-        <v>0</v>
+        <v>25.336861711899246</v>
       </c>
       <c r="G141" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>42103</v>
       </c>
@@ -3692,19 +3710,19 @@
         <v>15</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F142" s="3">
-        <v>0</v>
+        <v>23.180361624673441</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>42103</v>
       </c>
@@ -3727,7 +3745,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>42103</v>
       </c>
@@ -3750,7 +3768,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>42103</v>
       </c>
@@ -3773,7 +3791,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>42103</v>
       </c>
@@ -3781,22 +3799,22 @@
         <v>4</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F146" s="3">
-        <v>0</v>
+        <v>674.57018105967245</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>42103</v>
       </c>
@@ -3804,22 +3822,22 @@
         <v>4</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F147" s="3">
-        <v>0</v>
+        <v>671.73972487647609</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>42103</v>
       </c>
@@ -3827,22 +3845,22 @@
         <v>4</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F148" s="3">
-        <v>0</v>
+        <v>674.49032539096618</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>42103</v>
       </c>
@@ -3853,19 +3871,19 @@
         <v>14</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F149" s="3">
-        <v>881.8906347401728</v>
+        <v>0</v>
       </c>
       <c r="G149" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>42103</v>
       </c>
@@ -3876,19 +3894,19 @@
         <v>14</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F150" s="3">
-        <v>873.18703214921061</v>
+        <v>0</v>
       </c>
       <c r="G150" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>42103</v>
       </c>
@@ -3899,19 +3917,19 @@
         <v>14</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F151" s="3">
-        <v>874.17257924273395</v>
+        <v>0</v>
       </c>
       <c r="G151" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>42103</v>
       </c>
@@ -3919,10 +3937,10 @@
         <v>4</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>13</v>
@@ -3934,7 +3952,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>42103</v>
       </c>
@@ -3942,10 +3960,10 @@
         <v>4</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>13</v>
@@ -3957,7 +3975,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>42103</v>
       </c>
@@ -3965,10 +3983,10 @@
         <v>4</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>13</v>
@@ -3980,7 +3998,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>42103</v>
       </c>
@@ -3991,19 +4009,19 @@
         <v>14</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F155" s="3">
-        <v>0</v>
+        <v>676.8661303447567</v>
       </c>
       <c r="G155" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>42103</v>
       </c>
@@ -4014,19 +4032,19 @@
         <v>14</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F156" s="3">
-        <v>0</v>
+        <v>658.84206265600517</v>
       </c>
       <c r="G156" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>42103</v>
       </c>
@@ -4037,19 +4055,19 @@
         <v>14</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F157" s="3">
-        <v>0</v>
+        <v>671.71419526775571</v>
       </c>
       <c r="G157" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>42103</v>
       </c>
@@ -4057,22 +4075,22 @@
         <v>4</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F158" s="3">
-        <v>676.8661303447567</v>
+        <v>39.216802067711342</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>42103</v>
       </c>
@@ -4080,22 +4098,22 @@
         <v>4</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F159" s="3">
-        <v>658.84206265600517</v>
+        <v>42.487474604185017</v>
       </c>
       <c r="G159" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>42103</v>
       </c>
@@ -4103,22 +4121,22 @@
         <v>4</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F160" s="3">
-        <v>671.71419526775571</v>
+        <v>42.674579264620064</v>
       </c>
       <c r="G160" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>42103</v>
       </c>
@@ -4129,19 +4147,19 @@
         <v>14</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F161" s="3">
-        <v>715.86794899898121</v>
+        <v>0</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>42103</v>
       </c>
@@ -4152,19 +4170,19 @@
         <v>14</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F162" s="3">
-        <v>696.98210430082668</v>
+        <v>0</v>
       </c>
       <c r="G162" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>42103</v>
       </c>
@@ -4175,19 +4193,19 @@
         <v>14</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F163" s="3">
-        <v>643.01444418544997</v>
+        <v>0</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>42104</v>
       </c>
@@ -4198,19 +4216,19 @@
         <v>15</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F164" s="3">
-        <v>39.811373785553158</v>
+        <v>216.9054970122526</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>42104</v>
       </c>
@@ -4221,19 +4239,19 @@
         <v>15</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F165" s="3">
-        <v>39.231587363828758</v>
+        <v>215.2228876933541</v>
       </c>
       <c r="G165" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>42104</v>
       </c>
@@ -4244,19 +4262,19 @@
         <v>15</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F166" s="3">
-        <v>39.613545858606031</v>
+        <v>215.63993317274861</v>
       </c>
       <c r="G166" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>42104</v>
       </c>
@@ -4273,13 +4291,13 @@
         <v>13</v>
       </c>
       <c r="F167" s="3">
-        <v>41.804485214506315</v>
+        <v>39.811373785553158</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>42104</v>
       </c>
@@ -4290,19 +4308,19 @@
         <v>15</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F168" s="3">
-        <v>216.9054970122526</v>
+        <v>39.231587363828758</v>
       </c>
       <c r="G168" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>42104</v>
       </c>
@@ -4313,19 +4331,19 @@
         <v>15</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F169" s="3">
-        <v>215.2228876933541</v>
+        <v>39.613545858606031</v>
       </c>
       <c r="G169" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>42104</v>
       </c>
@@ -4336,22 +4354,1081 @@
         <v>15</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F170" s="3">
-        <v>215.63993317274861</v>
+        <v>41.804485214506315</v>
       </c>
       <c r="G170" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B171" s="1">
+        <v>6</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F171" s="3">
+        <v>0</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B172" s="1">
+        <v>6</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F172" s="3">
+        <v>0</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B173" s="1">
+        <v>6</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F173" s="3">
+        <v>0</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B174" s="1">
+        <v>6</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F174" s="3">
+        <v>874.43857683344061</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B175" s="1">
+        <v>6</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F175" s="3">
+        <v>878.35162173622086</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B176" s="1">
+        <v>6</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F176" s="3">
+        <v>870.77361712123911</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B177" s="1">
+        <v>7</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F177" s="3">
+        <v>855.19753260590028</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B178" s="1">
+        <v>7</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F178" s="3">
+        <v>885.89920173150847</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B179" s="1">
+        <v>7</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F179" s="3">
+        <v>841.15439144625896</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B180" s="1">
+        <v>7</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F180" s="4">
+        <v>862</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B181" s="1">
+        <v>7</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F181" s="3">
+        <v>0</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B182" s="1">
+        <v>7</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F182" s="3">
+        <v>0</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B183" s="1">
+        <v>7</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F183" s="3">
+        <v>0</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B184" s="1">
+        <v>7</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F184" s="3">
+        <v>0</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B185" s="1">
+        <v>6</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F185" s="3">
+        <v>0</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B186" s="1">
+        <v>6</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F186" s="3">
+        <v>0</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B187" s="1">
+        <v>6</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F187" s="3">
+        <v>0</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B188" s="1">
+        <v>6</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F188" s="3">
+        <v>0</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B189" s="1">
+        <v>6</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F189" s="3">
+        <v>687.52511439963598</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B190" s="1">
+        <v>6</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F190" s="3">
+        <v>698.51206700455725</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B191" s="1">
+        <v>6</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F191" s="3">
+        <v>738.17933170909816</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B192" s="1">
+        <v>6</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F192" s="3">
+        <v>708.62944810280362</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B193" s="1">
+        <v>6</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F193" s="3">
+        <v>23.060965224900105</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B194" s="1">
+        <v>6</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F194" s="3">
+        <v>22.609655800358333</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B195" s="1">
+        <v>6</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F195" s="3">
+        <v>21.962716702673763</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B196" s="1">
+        <v>6</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F196" s="3">
+        <v>854.47051958070517</v>
+      </c>
+      <c r="G196" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B197" s="1">
+        <v>6</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F197" s="3">
+        <v>876.7188382442896</v>
+      </c>
+      <c r="G197" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B198" s="1">
+        <v>6</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F198" s="3">
+        <v>867.06196980241714</v>
+      </c>
+      <c r="G198" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B199" s="1">
+        <v>7</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F199" s="3">
+        <v>822.56261576175746</v>
+      </c>
+      <c r="G199" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B200" s="1">
+        <v>7</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F200" s="3">
+        <v>840.9421681741328</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B201" s="1">
+        <v>7</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F201" s="3">
+        <v>855.57318370694486</v>
+      </c>
+      <c r="G201" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B202" s="1">
+        <v>7</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F202" s="3">
+        <v>20.155687844398742</v>
+      </c>
+      <c r="G202" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B203" s="1">
+        <v>7</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F203" s="3">
+        <v>22.478883692466813</v>
+      </c>
+      <c r="G203" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B204" s="1">
+        <v>7</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F204" s="3">
+        <v>20.867306461889708</v>
+      </c>
+      <c r="G204" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B205" s="1">
+        <v>6</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F205" s="3">
+        <v>652.82174998804385</v>
+      </c>
+      <c r="G205" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B206" s="1">
+        <v>6</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F206" s="3">
+        <v>663.49549014748868</v>
+      </c>
+      <c r="G206" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B207" s="1">
+        <v>6</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F207" s="3">
+        <v>651.01706713058377</v>
+      </c>
+      <c r="G207" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B208" s="1">
+        <v>6</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F208" s="3">
+        <v>0</v>
+      </c>
+      <c r="G208" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B209" s="1">
+        <v>6</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F209" s="3">
+        <v>0</v>
+      </c>
+      <c r="G209" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B210" s="1">
+        <v>6</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F210" s="3">
+        <v>0</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B211" s="1">
+        <v>6</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F211" s="3">
+        <v>0</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B212" s="1">
+        <v>6</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F212" s="3">
+        <v>0</v>
+      </c>
+      <c r="G212" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B213" s="1">
+        <v>6</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F213" s="3">
+        <v>0</v>
+      </c>
+      <c r="G213" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B214" s="1">
+        <v>6</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F214" s="3">
+        <v>683.16861468096931</v>
+      </c>
+      <c r="G214" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B215" s="1">
+        <v>6</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F215" s="3">
+        <v>652.00532348705804</v>
+      </c>
+      <c r="G215" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B216" s="1">
+        <v>6</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F216" s="3">
+        <v>683.99401301188493</v>
+      </c>
+      <c r="G216" s="1" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G121">
-    <filterColumn colId="2"/>
-    <filterColumn colId="5"/>
+    <sortState ref="A2:G216">
+      <sortCondition ref="A1:A121"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
